--- a/biology/Médecine/Muscle_long_abducteur_du_pouce/Muscle_long_abducteur_du_pouce.xlsx
+++ b/biology/Médecine/Muscle_long_abducteur_du_pouce/Muscle_long_abducteur_du_pouce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce (ou muscle supinateur de la main) est un muscle de l'avant bras. Il est situé dans le plan profond de la loge antébrachiale postérieure.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce se fixe sur les faces dorsales du radius, de la membrane interosseuse et de l'ulna
 </t>
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce se dirige obliquement en dehors.
 Son tendon limite latéralement la tabatière anatomique.
@@ -574,7 +590,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce se termine sur la base du premier métacarpien. 
 </t>
@@ -605,7 +623,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce est innervé par le nerf du muscle long abducteur du pouce issu du rameau profond du nerf radial.
 Il est extenseur, abducteur et rotateur latéral, et est innervé par le nerf radial via sa branche profonde.
@@ -637,7 +657,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce se termine sur la base du premier métacarpien tandis que le muscle court extenseur du pouce se termine sur la face dorso-basale de la première phalange.
 Ces deux muscles sont tous les deux des abducteurs du poignet lorsque leur action n’est pas compensée par celle de le muscle extenseur ulnaire du carpe.
@@ -672,7 +694,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long abducteur du pouce peut entrer en conflit avec ténosynovite au niveau de la coulisse fibreuse située en regard de la styloïde radiale.
 </t>
